--- a/biology/Zoologie/Bulbul_marron/Bulbul_marron.xlsx
+++ b/biology/Zoologie/Bulbul_marron/Bulbul_marron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemixos castanonotus
 Le Bulbul marron (Hemixos castanonotus) est une espèce d'oiseaux chanteurs de la famille des Pycnonotidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se trouve dans le Sud de la Chine, à Hong Kong et dans le Nord du Viêt Nam[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se trouve dans le Sud de la Chine, à Hong Kong et dans le Nord du Viêt Nam,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat naturel est constitué de forêts subtropicales ou tropicales de plaines humides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel est constitué de forêts subtropicales ou tropicales de plaines humides.
 </t>
         </is>
       </c>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 Hemixos castanonotus canipennis  Seebohm, 1890 ;
 Hemixos castanonotus castanonotus  Swinhoe, 1870.</t>
         </is>
